--- a/PCB-DiffTorch-PowerStage/main.xlsx
+++ b/PCB-DiffTorch-PowerStage/main.xlsx
@@ -1796,8 +1796,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2728,22 +2728,22 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>1</v>
       </c>
     </row>
